--- a/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4DA286-E813-42DB-8B7C-8D2EA881B4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C272CE3D-2DB2-4B20-9DB9-0FE588615197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54DF43E5-7849-4830-BAA0-5C4A26B04B9A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B77FB72E-09C4-4BED-B94B-04C9763FA0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>13,66%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>86,34%</t>
   </si>
   <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1834 +140,1804 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>39,52%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB68D43B-8D4D-4901-AC27-7EEBFE587865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BF4352-3FA9-42E4-A5BD-4C8A415CB33F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3821,7 +3791,7 @@
         <v>4479</v>
       </c>
       <c r="N29" s="7">
-        <v>4550035</v>
+        <v>4550036</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3872,7 +3842,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3910,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2D32F2-F11C-4A3C-A079-2C26B0EF98F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC9BA92-6532-462B-BE33-99CD92EDC261}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4657,7 +4627,7 @@
         <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4666,13 +4636,13 @@
         <v>131844</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,10 +4660,10 @@
         <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4702,13 +4672,13 @@
         <v>100927</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -4717,13 +4687,13 @@
         <v>300365</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4761,13 @@
         <v>14263</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>137</v>
@@ -4806,13 +4776,13 @@
         <v>142201</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -4821,13 +4791,13 @@
         <v>156464</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4812,13 @@
         <v>259718</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -4857,13 +4827,13 @@
         <v>137830</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>379</v>
@@ -4872,13 +4842,13 @@
         <v>397548</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4916,13 @@
         <v>65830</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>321</v>
@@ -4961,13 +4931,13 @@
         <v>353624</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>381</v>
@@ -4976,13 +4946,13 @@
         <v>419454</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4967,13 @@
         <v>596958</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>315</v>
@@ -5012,13 +4982,13 @@
         <v>340229</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>873</v>
@@ -5027,13 +4997,13 @@
         <v>937187</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5071,13 @@
         <v>87442</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>385</v>
@@ -5116,13 +5086,13 @@
         <v>420768</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>463</v>
@@ -5131,13 +5101,13 @@
         <v>508210</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5122,13 @@
         <v>691656</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>372</v>
@@ -5167,13 +5137,13 @@
         <v>403085</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1011</v>
@@ -5182,13 +5152,13 @@
         <v>1094741</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5226,13 @@
         <v>321117</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1807</v>
@@ -5271,13 +5241,13 @@
         <v>1958879</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>2103</v>
@@ -5286,13 +5256,13 @@
         <v>2279995</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5277,13 @@
         <v>3105662</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>1491</v>
@@ -5322,13 +5292,13 @@
         <v>1599430</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>4404</v>
@@ -5337,13 +5307,13 @@
         <v>4705093</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE0F112-FC11-4159-B3AB-B1FB8F48601C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62708626-25A6-40B7-A45A-0111F939B949}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5440,7 +5410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5547,13 +5517,13 @@
         <v>36425</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>171</v>
@@ -5562,13 +5532,13 @@
         <v>178409</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>203</v>
@@ -5577,13 +5547,13 @@
         <v>214834</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5568,13 @@
         <v>257336</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -5613,13 +5583,13 @@
         <v>110294</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>340</v>
@@ -5628,13 +5598,13 @@
         <v>367630</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5672,13 @@
         <v>51624</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>271</v>
@@ -5717,13 +5687,13 @@
         <v>296720</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>319</v>
@@ -5732,13 +5702,13 @@
         <v>348343</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,10 +5723,10 @@
         <v>450951</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>355</v>
@@ -6820,10 +6790,10 @@
         <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6808,13 @@
         <v>2907007</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H29" s="7">
         <v>1505</v>
@@ -6853,13 +6823,13 @@
         <v>1584470</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M29" s="7">
         <v>4281</v>
@@ -6868,13 +6838,13 @@
         <v>4491477</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>486</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,7 +6924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E8D0-5E73-4181-A7DC-4D4F26641C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4CAFB7-A7BF-4D8D-B0D8-192CD587066C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6971,7 +6941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7078,13 +7048,13 @@
         <v>152838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>491</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>502</v>
@@ -7093,13 +7063,13 @@
         <v>249624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M4" s="7">
         <v>685</v>
@@ -7108,13 +7078,13 @@
         <v>402462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7099,13 @@
         <v>107460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>499</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -7144,13 +7114,13 @@
         <v>21779</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M5" s="7">
         <v>184</v>
@@ -7159,13 +7129,13 @@
         <v>129238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7203,13 @@
         <v>379438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>665</v>
@@ -7248,13 +7218,13 @@
         <v>506189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>511</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M7" s="7">
         <v>954</v>
@@ -7263,13 +7233,13 @@
         <v>885628</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7254,13 @@
         <v>139859</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -7299,13 +7269,13 @@
         <v>48377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>521</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
@@ -7314,13 +7284,13 @@
         <v>188236</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,13 +7358,13 @@
         <v>246426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>477</v>
@@ -7403,13 +7373,13 @@
         <v>332563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M10" s="7">
         <v>745</v>
@@ -7418,13 +7388,13 @@
         <v>578989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7409,13 @@
         <v>75814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -7454,13 +7424,13 @@
         <v>40721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>151</v>
@@ -7469,13 +7439,13 @@
         <v>116535</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,13 +7513,13 @@
         <v>210957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H13" s="7">
         <v>541</v>
@@ -7558,13 +7528,13 @@
         <v>378280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M13" s="7">
         <v>729</v>
@@ -7573,13 +7543,13 @@
         <v>589237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,13 +7564,13 @@
         <v>111283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -7609,13 +7579,13 @@
         <v>50276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -7624,13 +7594,13 @@
         <v>161559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7668,13 @@
         <v>172695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>42</v>
+        <v>555</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>474</v>
@@ -7713,13 +7683,13 @@
         <v>245906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
@@ -7728,13 +7698,13 @@
         <v>418600</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7719,13 @@
         <v>24053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>563</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7764,13 +7734,13 @@
         <v>13607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -7779,13 +7749,13 @@
         <v>37660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7823,13 @@
         <v>213277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
         <v>410</v>
@@ -7868,13 +7838,13 @@
         <v>252694</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>580</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="M19" s="7">
         <v>693</v>
@@ -7883,13 +7853,13 @@
         <v>465971</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,13 +7874,13 @@
         <v>63946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -7919,13 +7889,13 @@
         <v>22928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>588</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -7934,13 +7904,13 @@
         <v>86874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +7978,13 @@
         <v>456571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>865</v>
@@ -8023,13 +7993,13 @@
         <v>716770</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M22" s="7">
         <v>1311</v>
@@ -8038,13 +8008,13 @@
         <v>1173340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>600</v>
+        <v>494</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8029,13 @@
         <v>171183</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -8074,13 +8044,13 @@
         <v>87433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>248</v>
@@ -8089,13 +8059,13 @@
         <v>258617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>610</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,13 +8133,13 @@
         <v>349936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H25" s="7">
         <v>1003</v>
@@ -8178,13 +8148,13 @@
         <v>802937</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M25" s="7">
         <v>1329</v>
@@ -8193,13 +8163,13 @@
         <v>1152873</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8184,13 @@
         <v>509492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -8229,13 +8199,13 @@
         <v>65497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>495</v>
@@ -8244,13 +8214,13 @@
         <v>574989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,13 +8288,13 @@
         <v>2182137</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>403</v>
+        <v>621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>630</v>
+        <v>451</v>
       </c>
       <c r="H28" s="7">
         <v>4937</v>
@@ -8333,28 +8303,28 @@
         <v>3484964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>632</v>
+        <v>317</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="M28" s="7">
         <v>7164</v>
       </c>
       <c r="N28" s="7">
-        <v>5667101</v>
+        <v>5667100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,13 +8339,13 @@
         <v>1203091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>411</v>
+        <v>627</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>636</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>430</v>
@@ -8384,13 +8354,13 @@
         <v>350617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>640</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>1579</v>
@@ -8399,13 +8369,13 @@
         <v>1553708</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8447,7 +8417,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C272CE3D-2DB2-4B20-9DB9-0FE588615197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{266392FC-D83B-4375-9C4C-5113A3FB1FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B77FB72E-09C4-4BED-B94B-04C9763FA0A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AED974E9-5E78-49BB-9CED-D7538539C88B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>13,66%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>86,34%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1798 +140,1774 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>6,8%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
     <t>10,31%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
   </si>
   <si>
     <t>20,13%</t>
@@ -2349,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BF4352-3FA9-42E4-A5BD-4C8A415CB33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A115B890-95E7-470D-A1C6-FE94D081A161}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3749,7 +3725,7 @@
         <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,16 +3737,16 @@
         <v>2953</v>
       </c>
       <c r="D29" s="7">
-        <v>2999905</v>
+        <v>2999904</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1526</v>
@@ -3779,13 +3755,13 @@
         <v>1550131</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4479</v>
@@ -3794,13 +3770,13 @@
         <v>4550036</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3788,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3832,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC9BA92-6532-462B-BE33-99CD92EDC261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065F67-993E-42A6-9948-1274357B4B70}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4002,39 +3978,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,39 +4023,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,39 +4068,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4117,13 @@
         <v>44633</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>295</v>
@@ -4156,13 +4132,13 @@
         <v>318868</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -4171,13 +4147,13 @@
         <v>363501</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4168,13 @@
         <v>460894</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>185</v>
@@ -4207,13 +4183,13 @@
         <v>204897</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>619</v>
@@ -4222,13 +4198,13 @@
         <v>665791</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4272,13 @@
         <v>22253</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -4311,13 +4287,13 @@
         <v>189550</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -4326,13 +4302,13 @@
         <v>211802</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4323,13 @@
         <v>301793</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -4362,13 +4338,13 @@
         <v>151470</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -4377,13 +4353,13 @@
         <v>453264</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4427,13 @@
         <v>73515</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>382</v>
@@ -4466,13 +4442,13 @@
         <v>415204</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>454</v>
@@ -4481,13 +4457,13 @@
         <v>488719</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4478,13 @@
         <v>595205</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>245</v>
@@ -4517,13 +4493,13 @@
         <v>260992</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>799</v>
@@ -4532,13 +4508,13 @@
         <v>856197</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,10 +4585,10 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -4621,13 +4597,13 @@
         <v>118664</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4636,13 +4612,13 @@
         <v>131844</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,10 +4636,10 @@
         <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4672,10 +4648,10 @@
         <v>100927</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>249</v>
@@ -4919,10 +4895,10 @@
         <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>321</v>
@@ -4931,13 +4907,13 @@
         <v>353624</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>381</v>
@@ -4946,13 +4922,13 @@
         <v>419454</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4943,13 @@
         <v>596958</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>315</v>
@@ -4982,13 +4958,13 @@
         <v>340229</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>873</v>
@@ -4997,13 +4973,13 @@
         <v>937187</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5047,13 @@
         <v>87442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>385</v>
@@ -5086,13 +5062,13 @@
         <v>420768</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>463</v>
@@ -5101,13 +5077,13 @@
         <v>508210</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5098,13 @@
         <v>691656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>372</v>
@@ -5137,13 +5113,13 @@
         <v>403085</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1011</v>
@@ -5152,13 +5128,13 @@
         <v>1094741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5202,13 @@
         <v>321117</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1807</v>
@@ -5241,13 +5217,13 @@
         <v>1958879</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>2103</v>
@@ -5256,13 +5232,13 @@
         <v>2279995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5253,13 @@
         <v>3105662</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>1491</v>
@@ -5292,13 +5268,13 @@
         <v>1599430</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>4404</v>
@@ -5307,13 +5283,13 @@
         <v>4705093</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5345,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62708626-25A6-40B7-A45A-0111F939B949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5FC652-F952-4FC4-A42F-D272AF38908C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5410,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5517,13 +5493,13 @@
         <v>36425</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>171</v>
@@ -5532,13 +5508,13 @@
         <v>178409</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>203</v>
@@ -5547,13 +5523,13 @@
         <v>214834</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5544,13 @@
         <v>257336</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -5583,13 +5559,13 @@
         <v>110294</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>340</v>
@@ -5598,13 +5574,13 @@
         <v>367630</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5648,13 @@
         <v>51624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>271</v>
@@ -5687,13 +5663,13 @@
         <v>296720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>319</v>
@@ -5702,13 +5678,13 @@
         <v>348343</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5699,13 @@
         <v>450951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>213</v>
@@ -5738,13 +5714,13 @@
         <v>226364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>640</v>
@@ -5753,13 +5729,13 @@
         <v>677316</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5803,13 @@
         <v>33044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>186</v>
@@ -5842,13 +5818,13 @@
         <v>190708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -5857,13 +5833,13 @@
         <v>223751</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5854,13 @@
         <v>285521</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>146</v>
@@ -5893,13 +5869,13 @@
         <v>145601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5908,13 +5884,13 @@
         <v>431123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5958,13 @@
         <v>64531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -5997,13 +5973,13 @@
         <v>246627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -6012,13 +5988,13 @@
         <v>311158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6009,13 @@
         <v>305433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -6048,13 +6024,13 @@
         <v>140656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>425</v>
@@ -6063,13 +6039,13 @@
         <v>446089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6113,13 @@
         <v>33283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -6152,13 +6128,13 @@
         <v>128008</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -6167,13 +6143,13 @@
         <v>161291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6164,13 @@
         <v>177938</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -6203,13 +6179,13 @@
         <v>90579</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>273</v>
@@ -6218,13 +6194,13 @@
         <v>268517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6268,13 @@
         <v>28161</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -6307,13 +6283,13 @@
         <v>170067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -6322,13 +6298,13 @@
         <v>198228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6319,13 @@
         <v>234962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -6358,13 +6334,13 @@
         <v>103048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>334</v>
@@ -6373,13 +6349,13 @@
         <v>338010</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6423,13 @@
         <v>124912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>337</v>
@@ -6462,13 +6438,13 @@
         <v>362813</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>447</v>
@@ -6477,13 +6453,13 @@
         <v>487725</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6474,13 @@
         <v>531646</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>309</v>
@@ -6513,13 +6489,13 @@
         <v>328481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>779</v>
@@ -6528,13 +6504,13 @@
         <v>860127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6578,13 @@
         <v>115364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>350</v>
@@ -6617,13 +6593,13 @@
         <v>386721</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>461</v>
@@ -6632,13 +6608,13 @@
         <v>502084</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6629,13 @@
         <v>663219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>405</v>
@@ -6668,13 +6644,13 @@
         <v>439446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>1044</v>
@@ -6683,13 +6659,13 @@
         <v>1102666</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6733,13 @@
         <v>487343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>1833</v>
@@ -6772,13 +6748,13 @@
         <v>1960072</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>2288</v>
@@ -6787,13 +6763,13 @@
         <v>2447415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6784,13 @@
         <v>2907007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>1505</v>
@@ -6823,13 +6799,13 @@
         <v>1584470</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>4281</v>
@@ -6838,13 +6814,13 @@
         <v>4491477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,7 +6876,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6924,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4CAFB7-A7BF-4D8D-B0D8-192CD587066C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CEA38B-DB0A-4878-A8CF-227180488AFE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6941,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7048,13 +7024,13 @@
         <v>152838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>502</v>
@@ -7063,13 +7039,13 @@
         <v>249624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>685</v>
@@ -7078,13 +7054,13 @@
         <v>402462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7075,13 @@
         <v>107460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -7114,13 +7090,13 @@
         <v>21779</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>184</v>
@@ -7129,13 +7105,13 @@
         <v>129238</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7179,13 @@
         <v>379438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>665</v>
@@ -7218,13 +7194,13 @@
         <v>506189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>498</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>954</v>
@@ -7233,13 +7209,13 @@
         <v>885628</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7230,13 @@
         <v>139859</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>512</v>
+        <v>377</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -7269,13 +7245,13 @@
         <v>48377</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
@@ -7284,13 +7260,13 @@
         <v>188236</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7334,13 @@
         <v>246426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>477</v>
@@ -7373,13 +7349,13 @@
         <v>332563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>745</v>
@@ -7388,13 +7364,13 @@
         <v>578989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7385,13 @@
         <v>75814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -7424,13 +7400,13 @@
         <v>40721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>151</v>
@@ -7439,13 +7415,13 @@
         <v>116535</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7489,13 @@
         <v>210957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>541</v>
@@ -7528,13 +7504,13 @@
         <v>378280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>542</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>729</v>
@@ -7543,13 +7519,13 @@
         <v>589237</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7540,13 @@
         <v>111283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -7579,13 +7555,13 @@
         <v>50276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -7594,13 +7570,13 @@
         <v>161559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7644,13 @@
         <v>172695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>555</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>542</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>474</v>
@@ -7683,13 +7659,13 @@
         <v>245906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
@@ -7698,13 +7674,13 @@
         <v>418600</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>560</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7695,13 @@
         <v>24053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7734,13 +7710,13 @@
         <v>13607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -7749,13 +7725,13 @@
         <v>37660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7799,13 @@
         <v>213277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>410</v>
@@ -7838,13 +7814,13 @@
         <v>252694</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>693</v>
@@ -7853,13 +7829,13 @@
         <v>465971</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7850,13 @@
         <v>63946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -7889,13 +7865,13 @@
         <v>22928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -7904,13 +7880,13 @@
         <v>86874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +7954,13 @@
         <v>456571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>865</v>
@@ -7993,13 +7969,13 @@
         <v>716770</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>1311</v>
@@ -8008,13 +7984,13 @@
         <v>1173340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8005,13 @@
         <v>171183</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -8044,13 +8020,13 @@
         <v>87433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="M23" s="7">
         <v>248</v>
@@ -8059,13 +8035,13 @@
         <v>258617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8109,13 @@
         <v>349936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>1003</v>
@@ -8148,13 +8124,13 @@
         <v>802937</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>1329</v>
@@ -8163,13 +8139,13 @@
         <v>1152873</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8160,13 @@
         <v>509492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -8199,13 +8175,13 @@
         <v>65497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>495</v>
@@ -8214,13 +8190,13 @@
         <v>574989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8264,13 @@
         <v>2182137</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>4937</v>
@@ -8303,13 +8279,13 @@
         <v>3484964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>317</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>7164</v>
@@ -8318,13 +8294,13 @@
         <v>5667100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8315,13 @@
         <v>1203091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>441</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>430</v>
@@ -8354,13 +8330,13 @@
         <v>350617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>1579</v>
@@ -8369,13 +8345,13 @@
         <v>1553708</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{266392FC-D83B-4375-9C4C-5113A3FB1FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA6025D-969F-4A0F-83EC-D14636EB545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AED974E9-5E78-49BB-9CED-D7538539C88B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D5CDD53-890B-4472-A520-8659FA5426CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1783 +137,1813 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>33,64%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
     <t>73,07%</t>
   </si>
   <si>
-    <t>68,22%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>31,78%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>83,71%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>16,29%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>72,73%</t>
   </si>
   <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>85,77%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>27,27%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>14,23%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>33,28%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A115B890-95E7-470D-A1C6-FE94D081A161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B15296-F30D-4A9E-A55B-57B55C7B842B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2443,10 +2473,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7">
-        <v>37298</v>
+        <v>104826</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2458,10 +2488,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="I4" s="7">
-        <v>142935</v>
+        <v>217129</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2473,10 +2503,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="N4" s="7">
-        <v>180233</v>
+        <v>321955</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2494,10 +2524,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>235712</v>
+        <v>168184</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2509,10 +2539,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>117903</v>
+        <v>42695</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2524,10 +2554,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="N5" s="7">
-        <v>353615</v>
+        <v>210879</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2560,10 +2590,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I6" s="7">
-        <v>260838</v>
+        <v>259824</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2575,10 +2605,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N6" s="7">
-        <v>533848</v>
+        <v>532834</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2628,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>44697</v>
+        <v>187867</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2613,10 +2643,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="I7" s="7">
-        <v>275511</v>
+        <v>422067</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2628,10 +2658,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>311</v>
+        <v>587</v>
       </c>
       <c r="N7" s="7">
-        <v>320208</v>
+        <v>609934</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2649,10 +2679,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>448378</v>
+        <v>305208</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2664,10 +2694,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="I8" s="7">
-        <v>228438</v>
+        <v>81882</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2679,10 +2709,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>653</v>
+        <v>377</v>
       </c>
       <c r="N8" s="7">
-        <v>676816</v>
+        <v>387090</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2753,10 +2783,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>23380</v>
+        <v>90966</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2768,10 +2798,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="I10" s="7">
-        <v>190989</v>
+        <v>279030</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2783,10 +2813,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>209</v>
+        <v>359</v>
       </c>
       <c r="N10" s="7">
-        <v>214369</v>
+        <v>369996</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2804,10 +2834,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>295466</v>
+        <v>227880</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2819,10 +2849,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7">
-        <v>144423</v>
+        <v>56382</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2834,10 +2864,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="N11" s="7">
-        <v>439889</v>
+        <v>284262</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2908,10 +2938,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>22228</v>
+        <v>108606</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2923,10 +2953,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="I13" s="7">
-        <v>172888</v>
+        <v>305293</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2938,10 +2968,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="N13" s="7">
-        <v>195116</v>
+        <v>413899</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2959,10 +2989,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="D14" s="7">
-        <v>336443</v>
+        <v>250065</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2974,10 +3004,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>198568</v>
+        <v>65010</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2989,10 +3019,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>545</v>
+        <v>327</v>
       </c>
       <c r="N14" s="7">
-        <v>535011</v>
+        <v>315075</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -3025,10 +3055,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I15" s="7">
-        <v>371456</v>
+        <v>370303</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3040,10 +3070,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N15" s="7">
-        <v>730127</v>
+        <v>728974</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3063,10 +3093,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>23062</v>
+        <v>73348</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -3078,10 +3108,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="I16" s="7">
-        <v>110308</v>
+        <v>180063</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -3093,10 +3123,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="N16" s="7">
-        <v>133370</v>
+        <v>253411</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -3114,10 +3144,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="D17" s="7">
-        <v>180246</v>
+        <v>129960</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -3129,10 +3159,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>97360</v>
+        <v>27605</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -3144,10 +3174,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7">
-        <v>277606</v>
+        <v>157565</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -3218,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>12743</v>
+        <v>72594</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3233,10 +3263,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="I19" s="7">
-        <v>152381</v>
+        <v>243429</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -3248,10 +3278,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="N19" s="7">
-        <v>165124</v>
+        <v>316024</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -3269,10 +3299,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="D20" s="7">
-        <v>258068</v>
+        <v>198217</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -3284,10 +3314,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>125763</v>
+        <v>34715</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -3299,10 +3329,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="N20" s="7">
-        <v>383831</v>
+        <v>232931</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -3373,10 +3403,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="D22" s="7">
-        <v>64726</v>
+        <v>251213</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -3388,10 +3418,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>365</v>
+        <v>534</v>
       </c>
       <c r="I22" s="7">
-        <v>373540</v>
+        <v>549368</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -3403,19 +3433,19 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>424</v>
+        <v>770</v>
       </c>
       <c r="N22" s="7">
-        <v>438266</v>
+        <v>800581</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,49 +3454,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>539</v>
+        <v>362</v>
       </c>
       <c r="D23" s="7">
-        <v>550301</v>
+        <v>363814</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>85</v>
+      </c>
+      <c r="I23" s="7">
+        <v>86467</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="7">
-        <v>256</v>
-      </c>
-      <c r="I23" s="7">
-        <v>264679</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>447</v>
+      </c>
+      <c r="N23" s="7">
+        <v>450281</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M23" s="7">
-        <v>795</v>
-      </c>
-      <c r="N23" s="7">
-        <v>814980</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,10 +3520,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I24" s="7">
-        <v>638219</v>
+        <v>635835</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3505,10 +3535,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="N24" s="7">
-        <v>1253246</v>
+        <v>1250862</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3522,55 +3552,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="D25" s="7">
-        <v>48505</v>
+        <v>230916</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>608</v>
+      </c>
+      <c r="I25" s="7">
+        <v>640905</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="7">
-        <v>386</v>
-      </c>
-      <c r="I25" s="7">
-        <v>410514</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>831</v>
+      </c>
+      <c r="N25" s="7">
+        <v>871822</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="7">
-        <v>433</v>
-      </c>
-      <c r="N25" s="7">
-        <v>459020</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,49 +3609,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>689</v>
+        <v>512</v>
       </c>
       <c r="D26" s="7">
-        <v>695290</v>
+        <v>511997</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>137</v>
+      </c>
+      <c r="I26" s="7">
+        <v>142606</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="7">
-        <v>359</v>
-      </c>
-      <c r="I26" s="7">
-        <v>372997</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>649</v>
+      </c>
+      <c r="N26" s="7">
+        <v>654602</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M26" s="7">
-        <v>1048</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1068286</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,10 +3660,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D27" s="7">
-        <v>743795</v>
+        <v>742913</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -3660,10 +3690,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="N27" s="7">
-        <v>1527306</v>
+        <v>1526424</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -3683,49 +3713,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>261</v>
+        <v>1059</v>
       </c>
       <c r="D28" s="7">
-        <v>276639</v>
+        <v>1120337</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>2757</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2837286</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="7">
-        <v>1771</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1829067</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>3816</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3957622</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M28" s="7">
-        <v>2032</v>
-      </c>
-      <c r="N28" s="7">
-        <v>2105705</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,46 +3764,46 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2953</v>
+        <v>2154</v>
       </c>
       <c r="D29" s="7">
-        <v>2999904</v>
+        <v>2155325</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>536</v>
+      </c>
+      <c r="I29" s="7">
+        <v>537360</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="7">
-        <v>1526</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1550131</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>2690</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2692685</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M29" s="7">
-        <v>4479</v>
-      </c>
-      <c r="N29" s="7">
-        <v>4550036</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>179</v>
@@ -3785,10 +3815,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3275662</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3800,10 +3830,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3374646</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3815,10 +3845,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>6511</v>
+        <v>6506</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6650307</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065F67-993E-42A6-9948-1274357B4B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B620CC32-5D48-4D03-AEE5-0CD17F2C6552}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4111,10 +4141,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7">
-        <v>44633</v>
+        <v>189517</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>183</v>
@@ -4126,10 +4156,10 @@
         <v>185</v>
       </c>
       <c r="H7" s="7">
-        <v>295</v>
+        <v>402</v>
       </c>
       <c r="I7" s="7">
-        <v>318868</v>
+        <v>438881</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>186</v>
@@ -4141,10 +4171,10 @@
         <v>188</v>
       </c>
       <c r="M7" s="7">
-        <v>333</v>
+        <v>580</v>
       </c>
       <c r="N7" s="7">
-        <v>363501</v>
+        <v>628398</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>189</v>
@@ -4162,10 +4192,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>434</v>
+        <v>293</v>
       </c>
       <c r="D8" s="7">
-        <v>460894</v>
+        <v>314951</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>192</v>
@@ -4177,10 +4207,10 @@
         <v>194</v>
       </c>
       <c r="H8" s="7">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="I8" s="7">
-        <v>204897</v>
+        <v>84884</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>195</v>
@@ -4192,10 +4222,10 @@
         <v>197</v>
       </c>
       <c r="M8" s="7">
-        <v>619</v>
+        <v>371</v>
       </c>
       <c r="N8" s="7">
-        <v>665791</v>
+        <v>399835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>198</v>
@@ -4213,10 +4243,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" s="7">
-        <v>505527</v>
+        <v>504468</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4243,10 +4273,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N9" s="7">
-        <v>1029292</v>
+        <v>1028233</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4266,10 +4296,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D10" s="7">
-        <v>22253</v>
+        <v>134936</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>201</v>
@@ -4281,10 +4311,10 @@
         <v>203</v>
       </c>
       <c r="H10" s="7">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="I10" s="7">
-        <v>189550</v>
+        <v>285838</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>204</v>
@@ -4296,10 +4326,10 @@
         <v>206</v>
       </c>
       <c r="M10" s="7">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="N10" s="7">
-        <v>211802</v>
+        <v>420774</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>207</v>
@@ -4317,10 +4347,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7">
-        <v>301793</v>
+        <v>189110</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>210</v>
@@ -4332,10 +4362,10 @@
         <v>212</v>
       </c>
       <c r="H11" s="7">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>151470</v>
+        <v>55182</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>213</v>
@@ -4347,10 +4377,10 @@
         <v>215</v>
       </c>
       <c r="M11" s="7">
-        <v>440</v>
+        <v>236</v>
       </c>
       <c r="N11" s="7">
-        <v>453264</v>
+        <v>244292</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>216</v>
@@ -4421,10 +4451,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="D13" s="7">
-        <v>73515</v>
+        <v>319156</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>219</v>
@@ -4436,10 +4466,10 @@
         <v>221</v>
       </c>
       <c r="H13" s="7">
-        <v>382</v>
+        <v>530</v>
       </c>
       <c r="I13" s="7">
-        <v>415204</v>
+        <v>574838</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>222</v>
@@ -4451,10 +4481,10 @@
         <v>224</v>
       </c>
       <c r="M13" s="7">
-        <v>454</v>
+        <v>824</v>
       </c>
       <c r="N13" s="7">
-        <v>488719</v>
+        <v>893994</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>225</v>
@@ -4472,10 +4502,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>554</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7">
-        <v>595205</v>
+        <v>349564</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>228</v>
@@ -4487,10 +4517,10 @@
         <v>230</v>
       </c>
       <c r="H14" s="7">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="I14" s="7">
-        <v>260992</v>
+        <v>101358</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>231</v>
@@ -4502,10 +4532,10 @@
         <v>233</v>
       </c>
       <c r="M14" s="7">
-        <v>799</v>
+        <v>429</v>
       </c>
       <c r="N14" s="7">
-        <v>856197</v>
+        <v>450922</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>234</v>
@@ -4576,49 +4606,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>13180</v>
+        <v>64587</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="I16" s="7">
-        <v>118664</v>
+        <v>176268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="N16" s="7">
-        <v>131844</v>
+        <v>240855</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,49 +4657,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D17" s="7">
-        <v>199438</v>
+        <v>148031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>100927</v>
+        <v>43323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="N17" s="7">
-        <v>300365</v>
+        <v>191354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,49 +4761,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="D19" s="7">
-        <v>14263</v>
+        <v>119007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="I19" s="7">
-        <v>142201</v>
+        <v>241529</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>151</v>
+        <v>344</v>
       </c>
       <c r="N19" s="7">
-        <v>156464</v>
+        <v>360536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,49 +4812,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="D20" s="7">
-        <v>259718</v>
+        <v>154974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>137830</v>
+        <v>38502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="N20" s="7">
-        <v>397548</v>
+        <v>193476</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,49 +4916,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="D22" s="7">
-        <v>65830</v>
+        <v>304200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>321</v>
+        <v>527</v>
       </c>
       <c r="I22" s="7">
-        <v>353624</v>
+        <v>572086</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
-        <v>381</v>
+        <v>807</v>
       </c>
       <c r="N22" s="7">
-        <v>419454</v>
+        <v>876287</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,49 +4967,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>558</v>
+        <v>338</v>
       </c>
       <c r="D23" s="7">
-        <v>596958</v>
+        <v>358588</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="I23" s="7">
-        <v>340229</v>
+        <v>121767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>873</v>
+        <v>447</v>
       </c>
       <c r="N23" s="7">
-        <v>937187</v>
+        <v>480354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,55 +5065,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="D25" s="7">
-        <v>87442</v>
+        <v>364437</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
-        <v>385</v>
+        <v>625</v>
       </c>
       <c r="I25" s="7">
-        <v>420768</v>
+        <v>681381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
-        <v>463</v>
+        <v>958</v>
       </c>
       <c r="N25" s="7">
-        <v>508210</v>
+        <v>1045818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,49 +5122,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>639</v>
+        <v>384</v>
       </c>
       <c r="D26" s="7">
-        <v>691656</v>
+        <v>414661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="I26" s="7">
-        <v>403085</v>
+        <v>140471</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
-        <v>1011</v>
+        <v>514</v>
       </c>
       <c r="N26" s="7">
-        <v>1094741</v>
+        <v>555132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +5188,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I27" s="7">
-        <v>823853</v>
+        <v>821852</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -5173,10 +5203,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="N27" s="7">
-        <v>1602951</v>
+        <v>1600950</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5196,49 +5226,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>296</v>
+        <v>1393</v>
       </c>
       <c r="D28" s="7">
-        <v>321117</v>
+        <v>1495841</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
-        <v>1807</v>
+        <v>2751</v>
       </c>
       <c r="I28" s="7">
-        <v>1958879</v>
+        <v>2970821</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
-        <v>2103</v>
+        <v>4144</v>
       </c>
       <c r="N28" s="7">
-        <v>2279995</v>
+        <v>4466662</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,49 +5277,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2913</v>
+        <v>1815</v>
       </c>
       <c r="D29" s="7">
-        <v>3105662</v>
+        <v>1929878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
-        <v>1491</v>
+        <v>545</v>
       </c>
       <c r="I29" s="7">
-        <v>1599430</v>
+        <v>585487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
-        <v>4404</v>
+        <v>2360</v>
       </c>
       <c r="N29" s="7">
-        <v>4705093</v>
+        <v>2515365</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,10 +5328,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="D30" s="7">
-        <v>3426779</v>
+        <v>3425719</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5313,10 +5343,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="I30" s="7">
-        <v>3558309</v>
+        <v>3556308</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5328,10 +5358,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>6507</v>
+        <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6985088</v>
+        <v>6982027</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5369,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5FC652-F952-4FC4-A42F-D272AF38908C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F27437-E7DA-4724-A9BC-F2F3E9CB02C3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,49 +5517,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>36425</v>
+        <v>150336</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="I4" s="7">
-        <v>178409</v>
+        <v>258376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="N4" s="7">
-        <v>214834</v>
+        <v>408712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,49 +5568,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>257336</v>
+        <v>143425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>110294</v>
+        <v>30327</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
+        <v>159</v>
+      </c>
+      <c r="N5" s="7">
+        <v>173752</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="N5" s="7">
-        <v>367630</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,49 +5672,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="D7" s="7">
-        <v>51624</v>
+        <v>236173</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
-        <v>271</v>
+        <v>417</v>
       </c>
       <c r="I7" s="7">
-        <v>296720</v>
+        <v>449363</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
-        <v>319</v>
+        <v>640</v>
       </c>
       <c r="N7" s="7">
-        <v>348343</v>
+        <v>685536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,43 +5723,43 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>427</v>
+        <v>249</v>
       </c>
       <c r="D8" s="7">
-        <v>450951</v>
+        <v>262686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>226364</v>
+        <v>72787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
-        <v>640</v>
+        <v>315</v>
       </c>
       <c r="N8" s="7">
-        <v>677316</v>
+        <v>335473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>356</v>
@@ -5744,10 +5774,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D9" s="7">
-        <v>502575</v>
+        <v>498859</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5759,10 +5789,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I9" s="7">
-        <v>523084</v>
+        <v>522150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5774,10 +5804,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="N9" s="7">
-        <v>1025659</v>
+        <v>1021009</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5797,10 +5827,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="D10" s="7">
-        <v>33044</v>
+        <v>187762</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>358</v>
@@ -5812,10 +5842,10 @@
         <v>360</v>
       </c>
       <c r="H10" s="7">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="I10" s="7">
-        <v>190708</v>
+        <v>302520</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>361</v>
@@ -5827,10 +5857,10 @@
         <v>363</v>
       </c>
       <c r="M10" s="7">
-        <v>221</v>
+        <v>490</v>
       </c>
       <c r="N10" s="7">
-        <v>223751</v>
+        <v>490282</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>364</v>
@@ -5848,10 +5878,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7">
-        <v>285521</v>
+        <v>130067</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>367</v>
@@ -5863,10 +5893,10 @@
         <v>369</v>
       </c>
       <c r="H11" s="7">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>145601</v>
+        <v>33789</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>370</v>
@@ -5878,10 +5908,10 @@
         <v>372</v>
       </c>
       <c r="M11" s="7">
-        <v>446</v>
+        <v>176</v>
       </c>
       <c r="N11" s="7">
-        <v>431123</v>
+        <v>163856</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>373</v>
@@ -5899,10 +5929,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D12" s="7">
-        <v>318565</v>
+        <v>317829</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5929,10 +5959,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>654874</v>
+        <v>654138</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5952,49 +5982,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="D13" s="7">
-        <v>64531</v>
+        <v>190119</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="I13" s="7">
-        <v>246627</v>
+        <v>320816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
-        <v>287</v>
+        <v>475</v>
       </c>
       <c r="N13" s="7">
-        <v>311158</v>
+        <v>510935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,49 +6033,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="D14" s="7">
-        <v>305433</v>
+        <v>177941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>140656</v>
+        <v>66467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
-        <v>425</v>
+        <v>235</v>
       </c>
       <c r="N14" s="7">
-        <v>446089</v>
+        <v>244408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,10 +6084,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>369964</v>
+        <v>368060</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6084,10 +6114,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N15" s="7">
-        <v>757247</v>
+        <v>755343</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6107,49 +6137,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>33283</v>
+        <v>121343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="I16" s="7">
-        <v>128008</v>
+        <v>202792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
-        <v>162</v>
+        <v>327</v>
       </c>
       <c r="N16" s="7">
-        <v>161291</v>
+        <v>324135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,49 +6188,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
-        <v>177938</v>
+        <v>89878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>90579</v>
+        <v>14841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="N17" s="7">
-        <v>268517</v>
+        <v>104719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,10 +6254,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I18" s="7">
-        <v>218587</v>
+        <v>217633</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6239,10 +6269,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N18" s="7">
-        <v>429808</v>
+        <v>428854</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6262,49 +6292,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D19" s="7">
-        <v>28161</v>
+        <v>115127</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="I19" s="7">
-        <v>170067</v>
+        <v>238958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="N19" s="7">
-        <v>198228</v>
+        <v>354085</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +6343,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="D20" s="7">
-        <v>234962</v>
+        <v>146362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="I20" s="7">
-        <v>103048</v>
+        <v>33116</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
-        <v>334</v>
+        <v>178</v>
       </c>
       <c r="N20" s="7">
-        <v>338010</v>
+        <v>179478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,10 +6394,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>263123</v>
+        <v>261489</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6379,10 +6409,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I21" s="7">
-        <v>273115</v>
+        <v>272074</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6394,10 +6424,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>536238</v>
+        <v>533563</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6417,49 +6447,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="D22" s="7">
-        <v>124912</v>
+        <v>344190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="I22" s="7">
-        <v>362813</v>
+        <v>599461</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
-        <v>447</v>
+        <v>864</v>
       </c>
       <c r="N22" s="7">
-        <v>487725</v>
+        <v>943651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,43 +6498,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>531646</v>
+        <v>311318</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="I23" s="7">
-        <v>328481</v>
+        <v>89801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
-        <v>779</v>
+        <v>359</v>
       </c>
       <c r="N23" s="7">
-        <v>860127</v>
+        <v>401119</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>440</v>
@@ -6519,10 +6549,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D24" s="7">
-        <v>656558</v>
+        <v>655508</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6534,10 +6564,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I24" s="7">
-        <v>691294</v>
+        <v>689262</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6549,10 +6579,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="N24" s="7">
-        <v>1347852</v>
+        <v>1344770</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6566,16 +6596,16 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>111</v>
+        <v>434</v>
       </c>
       <c r="D25" s="7">
-        <v>115364</v>
+        <v>453424</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>442</v>
@@ -6584,37 +6614,37 @@
         <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H25" s="7">
+        <v>660</v>
+      </c>
+      <c r="I25" s="7">
+        <v>721082</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H25" s="7">
-        <v>350</v>
-      </c>
-      <c r="I25" s="7">
-        <v>386721</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1094</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1174506</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="M25" s="7">
-        <v>461</v>
-      </c>
-      <c r="N25" s="7">
-        <v>502084</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,49 +6653,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>639</v>
+        <v>316</v>
       </c>
       <c r="D26" s="7">
-        <v>663219</v>
+        <v>325159</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H26" s="7">
+        <v>95</v>
+      </c>
+      <c r="I26" s="7">
+        <v>105085</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H26" s="7">
-        <v>405</v>
-      </c>
-      <c r="I26" s="7">
-        <v>439446</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>411</v>
+      </c>
+      <c r="N26" s="7">
+        <v>430244</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1044</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1102666</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,49 +6757,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>455</v>
+        <v>1694</v>
       </c>
       <c r="D28" s="7">
-        <v>487343</v>
+        <v>1798474</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2922</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3093366</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>4616</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4891842</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="H28" s="7">
-        <v>1833</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1960072</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="M28" s="7">
-        <v>2288</v>
-      </c>
-      <c r="N28" s="7">
-        <v>2447415</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,49 +6808,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2776</v>
+        <v>1529</v>
       </c>
       <c r="D29" s="7">
-        <v>2907007</v>
+        <v>1586835</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H29" s="7">
+        <v>411</v>
+      </c>
+      <c r="I29" s="7">
+        <v>446214</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2033048</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H29" s="7">
-        <v>1505</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1584470</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="M29" s="7">
-        <v>4281</v>
-      </c>
-      <c r="N29" s="7">
-        <v>4491477</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,10 +6859,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="D30" s="7">
-        <v>3394350</v>
+        <v>3385309</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6844,10 +6874,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>3338</v>
+        <v>3333</v>
       </c>
       <c r="I30" s="7">
-        <v>3544542</v>
+        <v>3539580</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6859,10 +6889,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>6569</v>
+        <v>6556</v>
       </c>
       <c r="N30" s="7">
-        <v>6938892</v>
+        <v>6924890</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6900,7 +6930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CEA38B-DB0A-4878-A8CF-227180488AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B9246-CB2F-4B42-A311-D7AA6252B1FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +7054,13 @@
         <v>152838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>502</v>
@@ -7039,13 +7069,13 @@
         <v>249624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>685</v>
@@ -7054,13 +7084,13 @@
         <v>402462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7105,13 @@
         <v>107460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -7090,13 +7120,13 @@
         <v>21779</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>184</v>
@@ -7105,13 +7135,13 @@
         <v>129238</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7209,13 @@
         <v>379438</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>665</v>
@@ -7194,13 +7224,13 @@
         <v>506189</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>954</v>
@@ -7209,13 +7239,13 @@
         <v>885628</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,10 +7260,10 @@
         <v>139859</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>504</v>
@@ -7349,13 +7379,13 @@
         <v>332563</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>745</v>
@@ -7364,13 +7394,13 @@
         <v>578989</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,49 +7409,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>75814</v>
+        <v>75148</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7">
+        <v>39358</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H11" s="7">
-        <v>59</v>
-      </c>
-      <c r="I11" s="7">
-        <v>40721</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>148</v>
+      </c>
+      <c r="N11" s="7">
+        <v>114506</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="M11" s="7">
-        <v>151</v>
-      </c>
-      <c r="N11" s="7">
-        <v>116535</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,10 +7460,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>321574</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7445,10 +7475,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>371921</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7460,10 +7490,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>693495</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7489,13 +7519,13 @@
         <v>210957</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>541</v>
@@ -7504,13 +7534,13 @@
         <v>378280</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>729</v>
@@ -7519,13 +7549,13 @@
         <v>589237</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7570,13 @@
         <v>111283</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -7555,10 +7585,10 @@
         <v>50276</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>541</v>
@@ -7641,16 +7671,16 @@
         <v>244</v>
       </c>
       <c r="D16" s="7">
-        <v>172695</v>
+        <v>172694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>474</v>
@@ -7659,28 +7689,28 @@
         <v>245906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
       </c>
       <c r="N16" s="7">
-        <v>418600</v>
+        <v>418601</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,19 +7719,19 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>24053</v>
+        <v>23555</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7710,28 +7740,28 @@
         <v>13607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N17" s="7">
-        <v>37660</v>
+        <v>37161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,10 +7770,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>196249</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7770,10 +7800,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>455762</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7799,13 +7829,13 @@
         <v>213277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>410</v>
@@ -7814,13 +7844,13 @@
         <v>252694</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>693</v>
@@ -7829,13 +7859,13 @@
         <v>465971</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7880,13 @@
         <v>63946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -7865,13 +7895,13 @@
         <v>22928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -7880,13 +7910,13 @@
         <v>86874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7984,13 @@
         <v>456571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>865</v>
@@ -7969,13 +7999,13 @@
         <v>716770</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>1311</v>
@@ -7984,13 +8014,13 @@
         <v>1173340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8035,13 @@
         <v>171183</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -8020,13 +8050,13 @@
         <v>87433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M23" s="7">
         <v>248</v>
@@ -8035,13 +8065,13 @@
         <v>258617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8127,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8139,13 @@
         <v>349936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>1003</v>
@@ -8124,13 +8154,13 @@
         <v>802937</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>1329</v>
@@ -8139,13 +8169,13 @@
         <v>1152873</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8190,13 @@
         <v>509492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -8175,13 +8205,13 @@
         <v>65497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>495</v>
@@ -8190,13 +8220,13 @@
         <v>574989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8294,13 @@
         <v>2182137</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="H28" s="7">
         <v>4937</v>
@@ -8279,28 +8309,28 @@
         <v>3484964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="M28" s="7">
         <v>7164</v>
       </c>
       <c r="N28" s="7">
-        <v>5667100</v>
+        <v>5667101</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,49 +8339,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D29" s="7">
-        <v>1203091</v>
+        <v>1201927</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I29" s="7">
-        <v>350617</v>
+        <v>349254</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="M29" s="7">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="N29" s="7">
-        <v>1553708</v>
+        <v>1551181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>632</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,10 +8390,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3384064</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8375,10 +8405,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3834218</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8390,10 +8420,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>8743</v>
+        <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7218282</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA6025D-969F-4A0F-83EC-D14636EB545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{923C124C-5AD3-4BA9-8E65-18EB0BF2E344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D5CDD53-890B-4472-A520-8659FA5426CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7FF715AD-555F-46AE-88BF-DBA6936BA5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="642">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>38,4%</t>
@@ -101,7 +101,7 @@
     <t>64,65%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>61,6%</t>
@@ -587,7 +587,58 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>37,57%</t>
@@ -698,1252 +749,1222 @@
     <t>40,78%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B15296-F30D-4A9E-A55B-57B55C7B842B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347C6A6C-1230-4700-A3B4-5DC7DA9BB147}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3716,7 +3737,7 @@
         <v>1059</v>
       </c>
       <c r="D28" s="7">
-        <v>1120337</v>
+        <v>1120336</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -3731,7 +3752,7 @@
         <v>2757</v>
       </c>
       <c r="I28" s="7">
-        <v>2837286</v>
+        <v>2837285</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>165</v>
@@ -3818,7 +3839,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3833,7 +3854,7 @@
         <v>3293</v>
       </c>
       <c r="I30" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3886,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B620CC32-5D48-4D03-AEE5-0CD17F2C6552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6A09AE-E35A-47C0-9A1D-9E5BB26EFF2A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4004,43 +4025,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="D4" s="7">
+        <v>136890</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="I4" s="7">
+        <v>250032</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="N4" s="7">
+        <v>386922</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,43 +4076,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="D5" s="7">
+        <v>157848</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="I5" s="7">
+        <v>37213</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="N5" s="7">
+        <v>195061</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,43 +4127,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4186,13 @@
         <v>189517</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>402</v>
@@ -4162,13 +4201,13 @@
         <v>438881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>580</v>
@@ -4177,13 +4216,13 @@
         <v>628398</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4237,13 @@
         <v>314951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>78</v>
@@ -4213,13 +4252,13 @@
         <v>84884</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>371</v>
@@ -4228,13 +4267,13 @@
         <v>399835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4341,13 @@
         <v>134936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>265</v>
@@ -4317,13 +4356,13 @@
         <v>285838</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>400</v>
@@ -4332,13 +4371,13 @@
         <v>420774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4392,13 @@
         <v>189110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4368,13 +4407,13 @@
         <v>55182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -4383,13 +4422,13 @@
         <v>244292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="D13" s="7">
-        <v>319156</v>
+        <v>182266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>530</v>
+        <v>309</v>
       </c>
       <c r="I13" s="7">
-        <v>574838</v>
+        <v>324806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>824</v>
+        <v>478</v>
       </c>
       <c r="N13" s="7">
-        <v>893994</v>
+        <v>507072</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,49 +4541,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="D14" s="7">
-        <v>349564</v>
+        <v>191716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>101358</v>
+        <v>64145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>429</v>
+        <v>237</v>
       </c>
       <c r="N14" s="7">
-        <v>450922</v>
+        <v>255861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4568,10 +4607,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4583,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4612,13 +4651,13 @@
         <v>64587</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>170</v>
@@ -4627,13 +4666,13 @@
         <v>176268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -4642,13 +4681,13 @@
         <v>240855</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4702,13 @@
         <v>148031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -4678,13 +4717,13 @@
         <v>43323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -4693,13 +4732,13 @@
         <v>191354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4806,13 @@
         <v>119007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>232</v>
@@ -4782,13 +4821,13 @@
         <v>241529</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>344</v>
@@ -4797,13 +4836,13 @@
         <v>360536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4857,13 @@
         <v>154974</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4833,13 +4872,13 @@
         <v>38502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>186</v>
@@ -4848,13 +4887,13 @@
         <v>193476</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4961,13 @@
         <v>304200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>527</v>
@@ -4937,10 +4976,10 @@
         <v>572086</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>167</v>
@@ -4952,13 +4991,13 @@
         <v>876287</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +5012,13 @@
         <v>358588</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H23" s="7">
         <v>109</v>
@@ -4988,13 +5027,13 @@
         <v>121767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>175</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>447</v>
@@ -5003,13 +5042,13 @@
         <v>480354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5116,13 @@
         <v>364437</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>625</v>
@@ -5095,10 +5134,10 @@
         <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>958</v>
@@ -5107,13 +5146,13 @@
         <v>1045818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5167,13 @@
         <v>414661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>130</v>
@@ -5146,10 +5185,10 @@
         <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -5158,13 +5197,13 @@
         <v>555132</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5271,13 @@
         <v>1495841</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>2751</v>
@@ -5247,13 +5286,13 @@
         <v>2970821</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>4144</v>
@@ -5262,13 +5301,13 @@
         <v>4466662</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5322,13 @@
         <v>1929878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
@@ -5298,13 +5337,13 @@
         <v>585487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>2360</v>
@@ -5313,13 +5352,13 @@
         <v>2515365</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F27437-E7DA-4724-A9BC-F2F3E9CB02C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E65EDA0-A668-4FA7-AF13-23EC6AF90867}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5416,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5523,13 +5562,13 @@
         <v>150336</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>249</v>
@@ -5538,13 +5577,13 @@
         <v>258376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
@@ -5553,13 +5592,13 @@
         <v>408712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5613,13 @@
         <v>143425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5589,13 +5628,13 @@
         <v>30327</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -5604,13 +5643,13 @@
         <v>173752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5717,13 @@
         <v>236173</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>417</v>
@@ -5693,13 +5732,13 @@
         <v>449363</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>640</v>
@@ -5708,13 +5747,13 @@
         <v>685536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5768,13 @@
         <v>262686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -5744,13 +5783,13 @@
         <v>72787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -5759,13 +5798,13 @@
         <v>335473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5872,13 @@
         <v>187762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>296</v>
@@ -5848,13 +5887,13 @@
         <v>302520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>490</v>
@@ -5863,13 +5902,13 @@
         <v>490282</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5923,13 @@
         <v>130067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -5899,13 +5938,13 @@
         <v>33789</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>176</v>
@@ -5914,13 +5953,13 @@
         <v>163856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +6027,13 @@
         <v>190119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>298</v>
@@ -6003,13 +6042,13 @@
         <v>320816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>475</v>
@@ -6018,13 +6057,13 @@
         <v>510935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6078,13 @@
         <v>177941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -6054,13 +6093,13 @@
         <v>66467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>235</v>
@@ -6069,13 +6108,13 @@
         <v>244408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6182,13 @@
         <v>121343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -6158,13 +6197,13 @@
         <v>202792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>327</v>
@@ -6173,13 +6212,13 @@
         <v>324135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6233,13 @@
         <v>89878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -6209,13 +6248,13 @@
         <v>14841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -6224,13 +6263,13 @@
         <v>104719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6337,13 @@
         <v>115127</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>232</v>
@@ -6316,10 +6355,10 @@
         <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
         <v>342</v>
@@ -6328,13 +6367,13 @@
         <v>354085</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6388,13 @@
         <v>146362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -6367,10 +6406,10 @@
         <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>178</v>
@@ -6379,13 +6418,13 @@
         <v>179478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6492,13 @@
         <v>344190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>563</v>
@@ -6468,13 +6507,13 @@
         <v>599461</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>864</v>
@@ -6483,13 +6522,13 @@
         <v>943651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6543,13 @@
         <v>311318</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -6519,13 +6558,13 @@
         <v>89801</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>359</v>
@@ -6534,13 +6573,13 @@
         <v>401119</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6647,13 @@
         <v>453424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>660</v>
@@ -6623,13 +6662,13 @@
         <v>721082</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M25" s="7">
         <v>1094</v>
@@ -6641,10 +6680,10 @@
         <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6698,13 @@
         <v>325159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>95</v>
@@ -6674,13 +6713,13 @@
         <v>105085</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>411</v>
@@ -6692,10 +6731,10 @@
         <v>108</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6802,13 @@
         <v>1798474</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>2922</v>
@@ -6778,13 +6817,13 @@
         <v>3093366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>4616</v>
@@ -6793,13 +6832,13 @@
         <v>4891842</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6853,13 @@
         <v>1586835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>411</v>
@@ -6829,13 +6868,13 @@
         <v>446214</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>1940</v>
@@ -6844,13 +6883,13 @@
         <v>2033048</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,7 +6969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871B9246-CB2F-4B42-A311-D7AA6252B1FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5B3B6E-D682-4DF0-BCB3-4EFA6BE67C56}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6947,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7051,46 +7090,46 @@
         <v>183</v>
       </c>
       <c r="D4" s="7">
-        <v>152838</v>
+        <v>186588</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>502</v>
       </c>
       <c r="I4" s="7">
-        <v>249624</v>
+        <v>264925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>685</v>
       </c>
       <c r="N4" s="7">
-        <v>402462</v>
+        <v>451513</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,46 +7141,46 @@
         <v>148</v>
       </c>
       <c r="D5" s="7">
-        <v>107460</v>
+        <v>124855</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>21779</v>
+        <v>24710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>184</v>
       </c>
       <c r="N5" s="7">
-        <v>129238</v>
+        <v>149564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,7 +7192,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7168,7 +7207,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7183,7 +7222,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7206,46 +7245,46 @@
         <v>289</v>
       </c>
       <c r="D7" s="7">
-        <v>379438</v>
+        <v>375996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>665</v>
       </c>
       <c r="I7" s="7">
-        <v>506189</v>
+        <v>471212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>954</v>
       </c>
       <c r="N7" s="7">
-        <v>885628</v>
+        <v>847208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,46 +7296,46 @@
         <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>139859</v>
+        <v>142394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
       </c>
       <c r="I8" s="7">
-        <v>48377</v>
+        <v>43757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>188236</v>
+        <v>186151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7308,7 +7347,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7323,7 +7362,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7338,7 +7377,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7361,46 +7400,46 @@
         <v>268</v>
       </c>
       <c r="D10" s="7">
-        <v>246426</v>
+        <v>242148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7">
         <v>477</v>
       </c>
       <c r="I10" s="7">
-        <v>332563</v>
+        <v>311471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>531</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="M10" s="7">
         <v>745</v>
       </c>
       <c r="N10" s="7">
-        <v>578989</v>
+        <v>553619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,46 +7451,46 @@
         <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>75148</v>
+        <v>73270</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>39358</v>
+        <v>36397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>540</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
       </c>
       <c r="N11" s="7">
-        <v>114506</v>
+        <v>109667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,7 +7502,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321574</v>
+        <v>315418</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7478,7 +7517,7 @@
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>371921</v>
+        <v>347868</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7493,7 +7532,7 @@
         <v>893</v>
       </c>
       <c r="N12" s="7">
-        <v>693495</v>
+        <v>663286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7516,46 +7555,46 @@
         <v>188</v>
       </c>
       <c r="D13" s="7">
-        <v>210957</v>
+        <v>202930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>541</v>
       </c>
       <c r="I13" s="7">
-        <v>378280</v>
+        <v>430401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>729</v>
       </c>
       <c r="N13" s="7">
-        <v>589237</v>
+        <v>633330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,46 +7606,46 @@
         <v>104</v>
       </c>
       <c r="D14" s="7">
-        <v>111283</v>
+        <v>109627</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>50276</v>
+        <v>45317</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
       </c>
       <c r="N14" s="7">
-        <v>161559</v>
+        <v>154944</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,7 +7657,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7633,7 +7672,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7648,7 +7687,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7671,46 +7710,46 @@
         <v>244</v>
       </c>
       <c r="D16" s="7">
-        <v>172694</v>
+        <v>157093</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="H16" s="7">
         <v>474</v>
       </c>
       <c r="I16" s="7">
-        <v>245906</v>
+        <v>247405</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
       </c>
       <c r="N16" s="7">
-        <v>418601</v>
+        <v>404498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,46 +7761,46 @@
         <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>23555</v>
+        <v>21182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>13607</v>
+        <v>11374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
       </c>
       <c r="N17" s="7">
-        <v>37161</v>
+        <v>32557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7773,7 +7812,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196249</v>
+        <v>178275</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7788,7 +7827,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7803,7 +7842,7 @@
         <v>773</v>
       </c>
       <c r="N18" s="7">
-        <v>455762</v>
+        <v>437055</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7826,46 +7865,46 @@
         <v>283</v>
       </c>
       <c r="D19" s="7">
-        <v>213277</v>
+        <v>207574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
         <v>410</v>
       </c>
       <c r="I19" s="7">
-        <v>252694</v>
+        <v>235819</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="M19" s="7">
         <v>693</v>
       </c>
       <c r="N19" s="7">
-        <v>465971</v>
+        <v>443393</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,46 +7916,46 @@
         <v>88</v>
       </c>
       <c r="D20" s="7">
-        <v>63946</v>
+        <v>62062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>22928</v>
+        <v>21237</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
       </c>
       <c r="N20" s="7">
-        <v>86874</v>
+        <v>83299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,7 +7967,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7943,7 +7982,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7958,7 +7997,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7981,46 +8020,46 @@
         <v>446</v>
       </c>
       <c r="D22" s="7">
-        <v>456571</v>
+        <v>452810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="H22" s="7">
         <v>865</v>
       </c>
       <c r="I22" s="7">
-        <v>716770</v>
+        <v>769182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>1311</v>
       </c>
       <c r="N22" s="7">
-        <v>1173340</v>
+        <v>1221992</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,46 +8071,46 @@
         <v>153</v>
       </c>
       <c r="D23" s="7">
-        <v>171183</v>
+        <v>171469</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>590</v>
+        <v>519</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>592</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>87433</v>
+        <v>80083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M23" s="7">
         <v>248</v>
       </c>
       <c r="N23" s="7">
-        <v>258617</v>
+        <v>251552</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>598</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,7 +8122,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8098,7 +8137,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8113,7 +8152,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8136,46 +8175,46 @@
         <v>326</v>
       </c>
       <c r="D25" s="7">
-        <v>349936</v>
+        <v>295470</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H25" s="7">
         <v>1003</v>
       </c>
       <c r="I25" s="7">
-        <v>802937</v>
+        <v>667162</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
         <v>1329</v>
       </c>
       <c r="N25" s="7">
-        <v>1152873</v>
+        <v>962632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,46 +8226,46 @@
         <v>436</v>
       </c>
       <c r="D26" s="7">
-        <v>509492</v>
+        <v>633250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
       </c>
       <c r="I26" s="7">
-        <v>65497</v>
+        <v>50569</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="M26" s="7">
         <v>495</v>
       </c>
       <c r="N26" s="7">
-        <v>574989</v>
+        <v>683820</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,7 +8277,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8253,7 +8292,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8268,7 +8307,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8291,46 +8330,46 @@
         <v>2227</v>
       </c>
       <c r="D28" s="7">
-        <v>2182137</v>
+        <v>2120608</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="H28" s="7">
         <v>4937</v>
       </c>
       <c r="I28" s="7">
-        <v>3484964</v>
+        <v>3397577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="M28" s="7">
         <v>7164</v>
       </c>
       <c r="N28" s="7">
-        <v>5667101</v>
+        <v>5518185</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8342,46 +8381,46 @@
         <v>1147</v>
       </c>
       <c r="D29" s="7">
-        <v>1201927</v>
+        <v>1338110</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="H29" s="7">
         <v>428</v>
       </c>
       <c r="I29" s="7">
-        <v>349254</v>
+        <v>313443</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>1575</v>
       </c>
       <c r="N29" s="7">
-        <v>1551181</v>
+        <v>1651553</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8393,7 +8432,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3384064</v>
+        <v>3458718</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8408,7 +8447,7 @@
         <v>5365</v>
       </c>
       <c r="I30" s="7">
-        <v>3834218</v>
+        <v>3711020</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8423,7 +8462,7 @@
         <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7218282</v>
+        <v>7169738</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
